--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Myoc-Fzd4.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Myoc-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>Fzd4</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -528,49 +534,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>23.2924521875443</v>
+        <v>0.2144083333333333</v>
       </c>
       <c r="H2">
-        <v>23.2924521875443</v>
+        <v>0.643225</v>
       </c>
       <c r="I2">
-        <v>0.9709019202906062</v>
+        <v>0.008611346839948651</v>
       </c>
       <c r="J2">
-        <v>0.9709019202906062</v>
+        <v>0.008611346839948651</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>20.2523515829116</v>
+        <v>19.48350866666667</v>
       </c>
       <c r="N2">
-        <v>20.2523515829116</v>
+        <v>58.450526</v>
       </c>
       <c r="O2">
-        <v>0.4668632877072912</v>
+        <v>0.3081250754721727</v>
       </c>
       <c r="P2">
-        <v>0.4668632877072912</v>
+        <v>0.3081250754721726</v>
       </c>
       <c r="Q2">
-        <v>471.7269309303056</v>
+        <v>4.177426620705555</v>
       </c>
       <c r="R2">
-        <v>471.7269309303056</v>
+        <v>37.59683958635</v>
       </c>
       <c r="S2">
-        <v>0.4532784625481948</v>
+        <v>0.002653371894976234</v>
       </c>
       <c r="T2">
-        <v>0.4532784625481948</v>
+        <v>0.002653371894976233</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -590,173 +596,669 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>23.2924521875443</v>
+        <v>0.2144083333333333</v>
       </c>
       <c r="H3">
-        <v>23.2924521875443</v>
+        <v>0.643225</v>
       </c>
       <c r="I3">
-        <v>0.9709019202906062</v>
+        <v>0.008611346839948651</v>
       </c>
       <c r="J3">
-        <v>0.9709019202906062</v>
+        <v>0.008611346839948651</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>23.1272674965162</v>
+        <v>20.343383</v>
       </c>
       <c r="N3">
-        <v>23.1272674965162</v>
+        <v>61.03014900000001</v>
       </c>
       <c r="O3">
-        <v>0.5331367122927089</v>
+        <v>0.3217236961512193</v>
       </c>
       <c r="P3">
-        <v>0.5331367122927089</v>
+        <v>0.3217236961512193</v>
       </c>
       <c r="Q3">
-        <v>538.690772391151</v>
+        <v>4.361790843391668</v>
       </c>
       <c r="R3">
-        <v>538.690772391151</v>
+        <v>39.25611759052501</v>
       </c>
       <c r="S3">
-        <v>0.5176234577424115</v>
+        <v>0.002770474334188402</v>
       </c>
       <c r="T3">
-        <v>0.5176234577424115</v>
+        <v>0.002770474334188402</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.698078370447083</v>
+        <v>0.2144083333333333</v>
       </c>
       <c r="H4">
-        <v>0.698078370447083</v>
+        <v>0.643225</v>
       </c>
       <c r="I4">
-        <v>0.02909807970939389</v>
+        <v>0.008611346839948651</v>
       </c>
       <c r="J4">
-        <v>0.02909807970939389</v>
+        <v>0.008611346839948651</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>20.2523515829116</v>
+        <v>0.1305583333333333</v>
       </c>
       <c r="N4">
-        <v>20.2523515829116</v>
+        <v>0.391675</v>
       </c>
       <c r="O4">
-        <v>0.4668632877072912</v>
+        <v>0.002064735720865253</v>
       </c>
       <c r="P4">
-        <v>0.4668632877072912</v>
+        <v>0.002064735720865253</v>
       </c>
       <c r="Q4">
-        <v>14.13772859072033</v>
+        <v>0.02799279465277778</v>
       </c>
       <c r="R4">
-        <v>14.13772859072033</v>
+        <v>0.251935151875</v>
       </c>
       <c r="S4">
-        <v>0.01358482515909645</v>
+        <v>1.77801554252021E-05</v>
       </c>
       <c r="T4">
-        <v>0.01358482515909645</v>
+        <v>1.77801554252021E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.2144083333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.643225</v>
+      </c>
+      <c r="I5">
+        <v>0.008611346839948651</v>
+      </c>
+      <c r="J5">
+        <v>0.008611346839948651</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>23.275017</v>
+      </c>
+      <c r="N5">
+        <v>69.825051</v>
+      </c>
+      <c r="O5">
+        <v>0.3680864926557428</v>
+      </c>
+      <c r="P5">
+        <v>0.3680864926557428</v>
+      </c>
+      <c r="Q5">
+        <v>4.990357603275</v>
+      </c>
+      <c r="R5">
+        <v>44.913218429475</v>
+      </c>
+      <c r="S5">
+        <v>0.003169720455358814</v>
+      </c>
+      <c r="T5">
+        <v>0.003169720455358813</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>23.971258</v>
+      </c>
+      <c r="H6">
+        <v>71.91377399999999</v>
+      </c>
+      <c r="I6">
+        <v>0.9627648963950115</v>
+      </c>
+      <c r="J6">
+        <v>0.9627648963950115</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>19.48350866666667</v>
+      </c>
+      <c r="N6">
+        <v>58.450526</v>
+      </c>
+      <c r="O6">
+        <v>0.3081250754721727</v>
+      </c>
+      <c r="P6">
+        <v>0.3081250754721726</v>
+      </c>
+      <c r="Q6">
+        <v>467.0442129939025</v>
+      </c>
+      <c r="R6">
+        <v>4203.397916945123</v>
+      </c>
+      <c r="S6">
+        <v>0.2966520063636714</v>
+      </c>
+      <c r="T6">
+        <v>0.2966520063636713</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>23.971258</v>
+      </c>
+      <c r="H7">
+        <v>71.91377399999999</v>
+      </c>
+      <c r="I7">
+        <v>0.9627648963950115</v>
+      </c>
+      <c r="J7">
+        <v>0.9627648963950115</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>20.343383</v>
+      </c>
+      <c r="N7">
+        <v>61.03014900000001</v>
+      </c>
+      <c r="O7">
+        <v>0.3217236961512193</v>
+      </c>
+      <c r="P7">
+        <v>0.3217236961512193</v>
+      </c>
+      <c r="Q7">
+        <v>487.656482485814</v>
+      </c>
+      <c r="R7">
+        <v>4388.908342372326</v>
+      </c>
+      <c r="S7">
+        <v>0.3097442809928488</v>
+      </c>
+      <c r="T7">
+        <v>0.3097442809928488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>23.971258</v>
+      </c>
+      <c r="H8">
+        <v>71.91377399999999</v>
+      </c>
+      <c r="I8">
+        <v>0.9627648963950115</v>
+      </c>
+      <c r="J8">
+        <v>0.9627648963950115</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.1305583333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.391675</v>
+      </c>
+      <c r="O8">
+        <v>0.002064735720865253</v>
+      </c>
+      <c r="P8">
+        <v>0.002064735720865253</v>
+      </c>
+      <c r="Q8">
+        <v>3.129647492383333</v>
+      </c>
+      <c r="R8">
+        <v>28.16682743145</v>
+      </c>
+      <c r="S8">
+        <v>0.001987855072381915</v>
+      </c>
+      <c r="T8">
+        <v>0.001987855072381915</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>23.971258</v>
+      </c>
+      <c r="H9">
+        <v>71.91377399999999</v>
+      </c>
+      <c r="I9">
+        <v>0.9627648963950115</v>
+      </c>
+      <c r="J9">
+        <v>0.9627648963950115</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>23.275017</v>
+      </c>
+      <c r="N9">
+        <v>69.825051</v>
+      </c>
+      <c r="O9">
+        <v>0.3680864926557428</v>
+      </c>
+      <c r="P9">
+        <v>0.3680864926557428</v>
+      </c>
+      <c r="Q9">
+        <v>557.9314374613859</v>
+      </c>
+      <c r="R9">
+        <v>5021.382937152473</v>
+      </c>
+      <c r="S9">
+        <v>0.3543807539661094</v>
+      </c>
+      <c r="T9">
+        <v>0.3543807539661094</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.7126843333333334</v>
+      </c>
+      <c r="H10">
+        <v>2.138053</v>
+      </c>
+      <c r="I10">
+        <v>0.02862375676503981</v>
+      </c>
+      <c r="J10">
+        <v>0.02862375676503981</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>19.48350866666667</v>
+      </c>
+      <c r="N10">
+        <v>58.450526</v>
+      </c>
+      <c r="O10">
+        <v>0.3081250754721727</v>
+      </c>
+      <c r="P10">
+        <v>0.3081250754721726</v>
+      </c>
+      <c r="Q10">
+        <v>13.88559138509756</v>
+      </c>
+      <c r="R10">
+        <v>124.970322465878</v>
+      </c>
+      <c r="S10">
+        <v>0.008819697213525005</v>
+      </c>
+      <c r="T10">
+        <v>0.008819697213525003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.698078370447083</v>
-      </c>
-      <c r="H5">
-        <v>0.698078370447083</v>
-      </c>
-      <c r="I5">
-        <v>0.02909807970939389</v>
-      </c>
-      <c r="J5">
-        <v>0.02909807970939389</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>23.1272674965162</v>
-      </c>
-      <c r="N5">
-        <v>23.1272674965162</v>
-      </c>
-      <c r="O5">
-        <v>0.5331367122927089</v>
-      </c>
-      <c r="P5">
-        <v>0.5331367122927089</v>
-      </c>
-      <c r="Q5">
-        <v>16.14464520686182</v>
-      </c>
-      <c r="R5">
-        <v>16.14464520686182</v>
-      </c>
-      <c r="S5">
-        <v>0.01551325455029744</v>
-      </c>
-      <c r="T5">
-        <v>0.01551325455029744</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.7126843333333334</v>
+      </c>
+      <c r="H11">
+        <v>2.138053</v>
+      </c>
+      <c r="I11">
+        <v>0.02862375676503981</v>
+      </c>
+      <c r="J11">
+        <v>0.02862375676503981</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>20.343383</v>
+      </c>
+      <c r="N11">
+        <v>61.03014900000001</v>
+      </c>
+      <c r="O11">
+        <v>0.3217236961512193</v>
+      </c>
+      <c r="P11">
+        <v>0.3217236961512193</v>
+      </c>
+      <c r="Q11">
+        <v>14.49841035109967</v>
+      </c>
+      <c r="R11">
+        <v>130.485693159897</v>
+      </c>
+      <c r="S11">
+        <v>0.009208940824182077</v>
+      </c>
+      <c r="T11">
+        <v>0.009208940824182077</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.7126843333333334</v>
+      </c>
+      <c r="H12">
+        <v>2.138053</v>
+      </c>
+      <c r="I12">
+        <v>0.02862375676503981</v>
+      </c>
+      <c r="J12">
+        <v>0.02862375676503981</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.1305583333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.391675</v>
+      </c>
+      <c r="O12">
+        <v>0.002064735720865253</v>
+      </c>
+      <c r="P12">
+        <v>0.002064735720865253</v>
+      </c>
+      <c r="Q12">
+        <v>0.09304687875277778</v>
+      </c>
+      <c r="R12">
+        <v>0.8374219087750001</v>
+      </c>
+      <c r="S12">
+        <v>5.910049305813614E-05</v>
+      </c>
+      <c r="T12">
+        <v>5.910049305813614E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.7126843333333334</v>
+      </c>
+      <c r="H13">
+        <v>2.138053</v>
+      </c>
+      <c r="I13">
+        <v>0.02862375676503981</v>
+      </c>
+      <c r="J13">
+        <v>0.02862375676503981</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>23.275017</v>
+      </c>
+      <c r="N13">
+        <v>69.825051</v>
+      </c>
+      <c r="O13">
+        <v>0.3680864926557428</v>
+      </c>
+      <c r="P13">
+        <v>0.3680864926557428</v>
+      </c>
+      <c r="Q13">
+        <v>16.587739973967</v>
+      </c>
+      <c r="R13">
+        <v>149.289659765703</v>
+      </c>
+      <c r="S13">
+        <v>0.0105360182342746</v>
+      </c>
+      <c r="T13">
+        <v>0.0105360182342746</v>
       </c>
     </row>
   </sheetData>
